--- a/Geco/PoyllanFS20/PolylanFS2020_Tournament_Timetable.xlsx
+++ b/Geco/PoyllanFS20/PolylanFS2020_Tournament_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\Geco\PoyllanFS20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2E21930-3CAF-460A-8716-DE5374BC03F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8D817-D0AE-4BD0-A01B-5C12B5C2323F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E5784B9-8E8B-4F6B-973B-543952D08563}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>LoL</t>
   </si>
@@ -247,6 +247,36 @@
   </si>
   <si>
     <t>Signup end</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>OW</t>
+  </si>
+  <si>
+    <t>Smash</t>
+  </si>
+  <si>
+    <t>MarioKart</t>
+  </si>
+  <si>
+    <t>Minecraft HG</t>
+  </si>
+  <si>
+    <t>Hearthstone</t>
+  </si>
+  <si>
+    <t>Rocket League</t>
   </si>
 </sst>
 </file>
@@ -653,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893D42D-8FD6-4C20-80C5-51050D85D05B}">
-  <dimension ref="A2:AC65"/>
+  <dimension ref="A1:AI65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +701,15 @@
     <col min="26" max="26" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -684,49 +722,58 @@
       <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="I2">
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>3</v>
       </c>
-      <c r="R2">
+      <c r="X2">
         <v>4</v>
       </c>
-      <c r="U2">
+      <c r="AA2">
         <v>5</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>6</v>
       </c>
-      <c r="AA2">
+      <c r="AG2">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.83333333333333304</v>
       </c>
@@ -737,253 +784,286 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="I7" s="4" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="O7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
+      <c r="Q7" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="R7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="M7" t="s">
+      <c r="S7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" t="s">
+      <c r="T7" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S7" t="s">
+      <c r="Y7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" t="s">
+      <c r="Z7" t="s">
         <v>52</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AG7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AH7" t="s">
         <v>58</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AI7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0.875</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J8" t="s">
+      <c r="P8" t="s">
         <v>11</v>
       </c>
-      <c r="K8" t="s">
+      <c r="Q8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="R8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="M8" t="s">
+      <c r="S8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
+      <c r="T8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0.91666666666666696</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J9" t="s">
+      <c r="P9" t="s">
         <v>12</v>
       </c>
-      <c r="K9" t="s">
+      <c r="Q9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.95833333333333304</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J10" t="s">
+      <c r="P10" t="s">
         <v>13</v>
       </c>
-      <c r="K10" t="s">
+      <c r="Q10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0.999999999999998</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1.0416666666666601</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1.0833333333333299</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M13" t="s">
+      <c r="S13" t="s">
         <v>17</v>
       </c>
-      <c r="N13" t="s">
+      <c r="T13" t="s">
         <v>28</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="U13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="P13" t="s">
+      <c r="V13" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="W13" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="X13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S13" t="s">
+      <c r="Y13" t="s">
         <v>46</v>
       </c>
-      <c r="T13" t="s">
+      <c r="Z13" t="s">
         <v>48</v>
       </c>
-      <c r="U13" s="4" t="s">
+      <c r="AA13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V13" t="s">
+      <c r="AB13" t="s">
         <v>46</v>
       </c>
-      <c r="W13" t="s">
+      <c r="AC13" t="s">
         <v>47</v>
       </c>
-      <c r="X13" s="4" t="s">
+      <c r="AD13" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AF13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1.125</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="H14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M14" t="s">
+      <c r="S14" t="s">
         <v>18</v>
       </c>
-      <c r="N14" t="s">
+      <c r="T14" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="U14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="V14" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="W14" t="s">
         <v>43</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="X14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S14" t="s">
+      <c r="Y14" t="s">
         <v>47</v>
       </c>
-      <c r="T14" t="s">
+      <c r="Z14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="L15" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M15" t="s">
+      <c r="S15" t="s">
         <v>19</v>
       </c>
-      <c r="N15" t="s">
+      <c r="T15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1.49999999999999</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="I16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M16" t="s">
+      <c r="S16" t="s">
         <v>10</v>
       </c>
-      <c r="N16" t="s">
+      <c r="T16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1.5416666666666601</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1.5833333333333299</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1.62499999999999</v>
       </c>
@@ -992,190 +1072,252 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1.6666666666666601</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K20" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1.7083333333333299</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1.75</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1.7916666666666601</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1.8333333333333299</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1.875</v>
       </c>
       <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1.9166666666666601</v>
       </c>
       <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H26" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1.9583333333333299</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
       <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2.0416666666666599</v>
       </c>
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2.0833333333333699</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2.12500000000004</v>
       </c>
       <c r="C31" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+      <c r="K31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1.49999999999999</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1.5416666666666601</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1.5833333333333299</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1.62499999999999</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1.6666666666666601</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1.7083333333333299</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K38" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1.75</v>
       </c>
       <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1.7916666666666601</v>
       </c>
       <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1.8333333333333299</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1.875</v>
       </c>
       <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1.9166666666666601</v>
       </c>
       <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1.9583333333333299</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2.0416666666666599</v>
       </c>
@@ -1184,8 +1326,14 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H46" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2.0833333333333699</v>
       </c>
@@ -1194,13 +1342,21 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I47" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2.12500000000004</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1.49999999999999</v>
       </c>
@@ -1209,73 +1365,78 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1.5416666666666601</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1.5833333333333299</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1.62499999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1.6666666666666601</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1.7083333333333299</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1.75</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1.7916666666666601</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1.8333333333333299</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1.875</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1.9166666666666601</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1.9583333333333299</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2.0416666666666599</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2.0833333333333699</v>
       </c>

--- a/Geco/PoyllanFS20/PolylanFS2020_Tournament_Timetable.xlsx
+++ b/Geco/PoyllanFS20/PolylanFS2020_Tournament_Timetable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliver Swageritis\Desktop\Privat\Geco\PoyllanFS20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD8D817-D0AE-4BD0-A01B-5C12B5C2323F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC994BB6-0E92-47C5-A62C-58EFDBBB4344}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E5784B9-8E8B-4F6B-973B-543952D08563}"/>
   </bookViews>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E893D42D-8FD6-4C20-80C5-51050D85D05B}">
   <dimension ref="A1:AI65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,21 +757,53 @@
       <c r="A3" s="1">
         <v>0.66666666666666663</v>
       </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0.70833333333333304</v>
       </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0.75</v>
       </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.79166666666666696</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
